--- a/biology/Biochimie/Mère_de_vinaigre/Mère_de_vinaigre.xlsx
+++ b/biology/Biochimie/Mère_de_vinaigre/Mère_de_vinaigre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>M%C3%A8re_de_vinaigre</t>
+          <t>Mère_de_vinaigre</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La mère de vinaigre (Mycoderma aceti) est un biofilm produit par une colonie de bactéries acétiques de l'espèce Gluconacetobacter europaeus lors d'une fermentation acétique destinée à produire un vinaigre[1]. Dans les années 1860, Pasteur (qui a mis au point un procédé de production quatre fois plus rapide que celui d'Orléans), parlait encore de « mycodermes » et d'une « petite plante » (la mère de vinaigre) qui allait grandir sur son substrat alcoolisé, à condition de lui fournir quelques adjuvants nutritifs (minéraux, carbone, azote)[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La mère de vinaigre (Mycoderma aceti) est un biofilm produit par une colonie de bactéries acétiques de l'espèce Gluconacetobacter europaeus lors d'une fermentation acétique destinée à produire un vinaigre. Dans les années 1860, Pasteur (qui a mis au point un procédé de production quatre fois plus rapide que celui d'Orléans), parlait encore de « mycodermes » et d'une « petite plante » (la mère de vinaigre) qui allait grandir sur son substrat alcoolisé, à condition de lui fournir quelques adjuvants nutritifs (minéraux, carbone, azote).
 </t>
         </is>
       </c>
